--- a/Figures and tables/S1 Table Vegetation and Population Structure.xlsx
+++ b/Figures and tables/S1 Table Vegetation and Population Structure.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Documents\HKT\Cat Does Plant\Figures and tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Documents\HKT po\Revision 2\Figures and tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E24424-E17F-456B-8026-B50725E03A28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27655B46-DA5D-4B31-A920-27F0C1CDBD55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S1 Table Vegetation and Populat" sheetId="1" r:id="rId1"/>
@@ -2989,28 +2989,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L178"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
+      <selection activeCell="E174" sqref="E174"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.77734375" customWidth="1"/>
-    <col min="3" max="3" width="55.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.33203125" customWidth="1"/>
-    <col min="8" max="8" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="55.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3048,7 +3048,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -3080,7 +3080,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -3112,7 +3112,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -3150,7 +3150,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -3188,7 +3188,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -3220,7 +3220,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -3252,7 +3252,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -3284,7 +3284,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -3316,7 +3316,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>51</v>
       </c>
@@ -3348,7 +3348,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>54</v>
       </c>
@@ -3380,7 +3380,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>57</v>
       </c>
@@ -3412,7 +3412,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>60</v>
       </c>
@@ -3444,7 +3444,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>63</v>
       </c>
@@ -3476,7 +3476,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>66</v>
       </c>
@@ -3508,7 +3508,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>69</v>
       </c>
@@ -3540,7 +3540,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>72</v>
       </c>
@@ -3578,7 +3578,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>78</v>
       </c>
@@ -3616,7 +3616,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>83</v>
       </c>
@@ -3654,7 +3654,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>86</v>
       </c>
@@ -3692,7 +3692,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>89</v>
       </c>
@@ -3730,7 +3730,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>94</v>
       </c>
@@ -3768,7 +3768,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>99</v>
       </c>
@@ -3806,7 +3806,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>104</v>
       </c>
@@ -3844,7 +3844,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>109</v>
       </c>
@@ -3882,7 +3882,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>114</v>
       </c>
@@ -3920,7 +3920,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>119</v>
       </c>
@@ -3958,7 +3958,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>124</v>
       </c>
@@ -3996,7 +3996,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>129</v>
       </c>
@@ -4034,7 +4034,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>135</v>
       </c>
@@ -4072,7 +4072,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>140</v>
       </c>
@@ -4104,7 +4104,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>143</v>
       </c>
@@ -4136,7 +4136,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>146</v>
       </c>
@@ -4174,7 +4174,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>149</v>
       </c>
@@ -4212,7 +4212,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>154</v>
       </c>
@@ -4244,7 +4244,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>157</v>
       </c>
@@ -4282,7 +4282,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>162</v>
       </c>
@@ -4320,7 +4320,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>167</v>
       </c>
@@ -4352,7 +4352,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>170</v>
       </c>
@@ -4390,7 +4390,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>175</v>
       </c>
@@ -4428,7 +4428,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>180</v>
       </c>
@@ -4460,7 +4460,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>183</v>
       </c>
@@ -4498,7 +4498,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>188</v>
       </c>
@@ -4530,7 +4530,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>191</v>
       </c>
@@ -4562,7 +4562,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>194</v>
       </c>
@@ -4594,7 +4594,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>197</v>
       </c>
@@ -4626,7 +4626,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>200</v>
       </c>
@@ -4658,7 +4658,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>203</v>
       </c>
@@ -4690,7 +4690,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>206</v>
       </c>
@@ -4722,7 +4722,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>209</v>
       </c>
@@ -4754,7 +4754,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>212</v>
       </c>
@@ -4786,7 +4786,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>215</v>
       </c>
@@ -4818,7 +4818,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>218</v>
       </c>
@@ -4850,7 +4850,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>221</v>
       </c>
@@ -4882,7 +4882,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>224</v>
       </c>
@@ -4914,7 +4914,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>227</v>
       </c>
@@ -4952,7 +4952,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>234</v>
       </c>
@@ -4984,7 +4984,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>237</v>
       </c>
@@ -5016,7 +5016,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>240</v>
       </c>
@@ -5048,7 +5048,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>243</v>
       </c>
@@ -5080,7 +5080,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>246</v>
       </c>
@@ -5118,7 +5118,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>250</v>
       </c>
@@ -5156,7 +5156,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>253</v>
       </c>
@@ -5194,7 +5194,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>258</v>
       </c>
@@ -5232,7 +5232,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>261</v>
       </c>
@@ -5270,7 +5270,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>266</v>
       </c>
@@ -5308,7 +5308,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>269</v>
       </c>
@@ -5346,7 +5346,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>274</v>
       </c>
@@ -5384,7 +5384,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>279</v>
       </c>
@@ -5422,7 +5422,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>284</v>
       </c>
@@ -5460,7 +5460,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>289</v>
       </c>
@@ -5498,7 +5498,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>294</v>
       </c>
@@ -5536,7 +5536,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>299</v>
       </c>
@@ -5574,7 +5574,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>304</v>
       </c>
@@ -5612,7 +5612,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>309</v>
       </c>
@@ -5650,7 +5650,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>314</v>
       </c>
@@ -5688,7 +5688,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>319</v>
       </c>
@@ -5726,7 +5726,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>324</v>
       </c>
@@ -5764,7 +5764,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>327</v>
       </c>
@@ -5802,7 +5802,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>332</v>
       </c>
@@ -5840,7 +5840,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>335</v>
       </c>
@@ -5878,7 +5878,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>340</v>
       </c>
@@ -5916,7 +5916,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>345</v>
       </c>
@@ -5954,7 +5954,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>350</v>
       </c>
@@ -5992,7 +5992,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>355</v>
       </c>
@@ -6030,7 +6030,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>360</v>
       </c>
@@ -6068,7 +6068,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>363</v>
       </c>
@@ -6106,7 +6106,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>368</v>
       </c>
@@ -6138,7 +6138,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>371</v>
       </c>
@@ -6170,7 +6170,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>374</v>
       </c>
@@ -6208,7 +6208,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>379</v>
       </c>
@@ -6240,7 +6240,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>382</v>
       </c>
@@ -6278,7 +6278,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>385</v>
       </c>
@@ -6310,7 +6310,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>388</v>
       </c>
@@ -6348,7 +6348,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>391</v>
       </c>
@@ -6380,7 +6380,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>394</v>
       </c>
@@ -6412,7 +6412,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>397</v>
       </c>
@@ -6444,7 +6444,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>400</v>
       </c>
@@ -6476,7 +6476,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>403</v>
       </c>
@@ -6508,7 +6508,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>406</v>
       </c>
@@ -6540,7 +6540,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>409</v>
       </c>
@@ -6572,7 +6572,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>412</v>
       </c>
@@ -6604,7 +6604,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>415</v>
       </c>
@@ -6642,7 +6642,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>418</v>
       </c>
@@ -6680,7 +6680,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>423</v>
       </c>
@@ -6718,7 +6718,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>428</v>
       </c>
@@ -6756,7 +6756,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>431</v>
       </c>
@@ -6788,7 +6788,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>434</v>
       </c>
@@ -6826,7 +6826,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>439</v>
       </c>
@@ -6864,7 +6864,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>444</v>
       </c>
@@ -6902,7 +6902,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>449</v>
       </c>
@@ -6940,7 +6940,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>452</v>
       </c>
@@ -6972,7 +6972,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>455</v>
       </c>
@@ -7010,7 +7010,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>460</v>
       </c>
@@ -7048,7 +7048,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>465</v>
       </c>
@@ -7086,7 +7086,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>468</v>
       </c>
@@ -7100,7 +7100,7 @@
         <v>39</v>
       </c>
       <c r="E117" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="F117" t="s">
         <v>75</v>
@@ -7124,7 +7124,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>471</v>
       </c>
@@ -7162,7 +7162,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>474</v>
       </c>
@@ -7200,7 +7200,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>477</v>
       </c>
@@ -7214,7 +7214,7 @@
         <v>39</v>
       </c>
       <c r="E120" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="F120" t="s">
         <v>75</v>
@@ -7238,7 +7238,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>482</v>
       </c>
@@ -7276,7 +7276,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>487</v>
       </c>
@@ -7314,7 +7314,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>492</v>
       </c>
@@ -7352,7 +7352,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>495</v>
       </c>
@@ -7390,7 +7390,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>500</v>
       </c>
@@ -7428,7 +7428,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>503</v>
       </c>
@@ -7466,7 +7466,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>508</v>
       </c>
@@ -7504,7 +7504,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>513</v>
       </c>
@@ -7542,7 +7542,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>518</v>
       </c>
@@ -7580,7 +7580,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>523</v>
       </c>
@@ -7618,7 +7618,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>526</v>
       </c>
@@ -7656,7 +7656,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>531</v>
       </c>
@@ -7694,7 +7694,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>536</v>
       </c>
@@ -7732,7 +7732,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>539</v>
       </c>
@@ -7770,7 +7770,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>544</v>
       </c>
@@ -7808,7 +7808,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>547</v>
       </c>
@@ -7846,7 +7846,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>552</v>
       </c>
@@ -7884,7 +7884,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>557</v>
       </c>
@@ -7916,7 +7916,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>560</v>
       </c>
@@ -7954,7 +7954,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>563</v>
       </c>
@@ -7986,7 +7986,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>566</v>
       </c>
@@ -8024,7 +8024,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>569</v>
       </c>
@@ -8062,7 +8062,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>573</v>
       </c>
@@ -8100,7 +8100,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>576</v>
       </c>
@@ -8132,7 +8132,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>579</v>
       </c>
@@ -8164,7 +8164,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>582</v>
       </c>
@@ -8178,7 +8178,7 @@
         <v>39</v>
       </c>
       <c r="E146" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="F146" t="s">
         <v>17</v>
@@ -8196,7 +8196,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>585</v>
       </c>
@@ -8234,7 +8234,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>588</v>
       </c>
@@ -8272,7 +8272,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>593</v>
       </c>
@@ -8286,7 +8286,7 @@
         <v>39</v>
       </c>
       <c r="E149" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="F149" t="s">
         <v>75</v>
@@ -8310,7 +8310,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>596</v>
       </c>
@@ -8348,7 +8348,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>602</v>
       </c>
@@ -8386,7 +8386,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>608</v>
       </c>
@@ -8424,7 +8424,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>613</v>
       </c>
@@ -8462,7 +8462,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>616</v>
       </c>
@@ -8494,7 +8494,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>619</v>
       </c>
@@ -8532,7 +8532,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>624</v>
       </c>
@@ -8564,7 +8564,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>627</v>
       </c>
@@ -8602,7 +8602,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>631</v>
       </c>
@@ -8640,7 +8640,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>634</v>
       </c>
@@ -8678,7 +8678,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>638</v>
       </c>
@@ -8716,7 +8716,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>643</v>
       </c>
@@ -8748,7 +8748,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>646</v>
       </c>
@@ -8780,7 +8780,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>649</v>
       </c>
@@ -8818,7 +8818,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>652</v>
       </c>
@@ -8850,7 +8850,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>655</v>
       </c>
@@ -8888,7 +8888,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>658</v>
       </c>
@@ -8926,7 +8926,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>663</v>
       </c>
@@ -8964,7 +8964,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>667</v>
       </c>
@@ -9002,7 +9002,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>672</v>
       </c>
@@ -9040,7 +9040,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>675</v>
       </c>
@@ -9078,7 +9078,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>680</v>
       </c>
@@ -9116,7 +9116,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>685</v>
       </c>
@@ -9154,7 +9154,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>690</v>
       </c>
@@ -9186,7 +9186,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>693</v>
       </c>
@@ -9224,7 +9224,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>696</v>
       </c>
@@ -9262,7 +9262,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>699</v>
       </c>
@@ -9300,7 +9300,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>702</v>
       </c>
@@ -9332,7 +9332,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>705</v>
       </c>
